--- a/output_region_cycle2017_summary_Africa.xlsx
+++ b/output_region_cycle2017_summary_Africa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Completed</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
   <si>
     <t>Assessment</t>
@@ -460,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -487,16 +490,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -537,16 +540,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -598,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
@@ -615,30 +618,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -663,16 +672,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -686,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -713,7 +722,95 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -721,111 +818,23 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="E1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
@@ -851,16 +860,66 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>15</v>
       </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -868,63 +927,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -951,16 +960,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -968,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
